--- a/Dokumentation/Zeitkonto Team 2.xlsx
+++ b/Dokumentation/Zeitkonto Team 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24223"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="1565" documentId="13_ncr:1_{BC308B8E-FAA3-4BC2-8D61-FD0C53137C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4708CD86-3154-4735-BB38-2BC2F1460257}"/>
+  <xr:revisionPtr revIDLastSave="1649" documentId="13_ncr:1_{BC308B8E-FAA3-4BC2-8D61-FD0C53137C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B7FC9C-B46E-422C-9854-40F914018534}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1950" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="113">
   <si>
     <t>DKE PR Zeitkonto Team 2</t>
   </si>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -983,9 +983,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,67 +1059,73 @@
     </xf>
   </cellXfs>
   <cellStyles count="99">
-    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Ergebnis 1" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="22" builtinId="8" hidden="1"/>
@@ -1130,27 +1133,21 @@
     <cellStyle name="Link" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Prozent" xfId="98" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
@@ -1621,11 +1618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="67.140625" style="16" bestFit="1" customWidth="1"/>
@@ -1656,25 +1653,25 @@
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="15.75">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="106" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1685,25 +1682,25 @@
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="100">
         <f>SUM(C5:C12)</f>
-        <v>79.416666666666671</v>
-      </c>
-      <c r="D4" s="103">
+        <v>87.916666666666671</v>
+      </c>
+      <c r="D4" s="102">
         <f t="shared" ref="D4:D12" si="0">C4/$C$51</f>
-        <v>0.2128657583203038</v>
-      </c>
-      <c r="E4" s="109">
+        <v>0.21676597493322375</v>
+      </c>
+      <c r="E4" s="108">
         <f>SUM(E5:E12)</f>
         <v>96</v>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="108">
         <f>SUM(F5:F12)</f>
-        <v>79.416666666666671</v>
-      </c>
-      <c r="G4" s="109">
+        <v>87.916666666666671</v>
+      </c>
+      <c r="G4" s="108">
         <f>E4-F4</f>
-        <v>16.583333333333329</v>
+        <v>8.0833333333333286</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="13" customFormat="1" ht="15.75">
@@ -1713,22 +1710,22 @@
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A5,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A5,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A5,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A5,'Stefan Bolda'!G:G),)</f>
         <v>10.25</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="103">
         <f t="shared" si="0"/>
-        <v>2.7473754746482022E-2</v>
-      </c>
-      <c r="E5" s="100">
+        <v>2.5272241627285801E-2</v>
+      </c>
+      <c r="E5" s="99">
         <v>13</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="99">
         <f>C5</f>
         <v>10.25</v>
       </c>
-      <c r="G5" s="100">
+      <c r="G5" s="99">
         <f>E5-F5</f>
         <v>2.75</v>
       </c>
@@ -1740,24 +1737,24 @@
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A6,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A6,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A6,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A6,'Stefan Bolda'!G:G),)</f>
-        <v>9.6666666666666643</v>
-      </c>
-      <c r="D6" s="104">
+        <v>10.666666666666664</v>
+      </c>
+      <c r="D6" s="103">
         <f t="shared" si="0"/>
-        <v>2.5910207728389541E-2</v>
-      </c>
-      <c r="E6" s="100">
+        <v>2.6299568522703917E-2</v>
+      </c>
+      <c r="E6" s="99">
         <v>15</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="99">
         <f t="shared" ref="F6:F12" si="1">C6</f>
-        <v>9.6666666666666643</v>
-      </c>
-      <c r="G6" s="100">
+        <v>10.666666666666664</v>
+      </c>
+      <c r="G6" s="99">
         <f t="shared" ref="G6:G12" si="2">E6-F6</f>
-        <v>5.3333333333333357</v>
+        <v>4.3333333333333357</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="15.75">
@@ -1767,22 +1764,22 @@
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A7,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A7,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A7,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A7,'Stefan Bolda'!G:G),)</f>
         <v>10.500000000000011</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="103">
         <f t="shared" si="0"/>
-        <v>2.8143846325664537E-2</v>
-      </c>
-      <c r="E7" s="100">
+        <v>2.58886377645367E-2</v>
+      </c>
+      <c r="E7" s="99">
         <v>5</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="99">
         <f t="shared" si="1"/>
         <v>10.500000000000011</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="99">
         <f t="shared" si="2"/>
         <v>-5.5000000000000107</v>
       </c>
@@ -1794,22 +1791,22 @@
       <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A8,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A8,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A8,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A8,'Stefan Bolda'!G:G),)</f>
         <v>13.5</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="103">
         <f t="shared" si="0"/>
-        <v>3.618494527585437E-2</v>
-      </c>
-      <c r="E8" s="100">
+        <v>3.3285391411547148E-2</v>
+      </c>
+      <c r="E8" s="99">
         <v>15</v>
       </c>
-      <c r="F8" s="100">
+      <c r="F8" s="99">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="99">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -1821,24 +1818,24 @@
       <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A9,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A9,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A9,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A9,'Stefan Bolda'!G:G),)</f>
-        <v>17.499999999999996</v>
-      </c>
-      <c r="D9" s="104">
+        <v>25</v>
+      </c>
+      <c r="D9" s="103">
         <f t="shared" si="0"/>
-        <v>4.6906410542774175E-2</v>
-      </c>
-      <c r="E9" s="100">
+        <v>6.1639613725087319E-2</v>
+      </c>
+      <c r="E9" s="99">
         <v>20</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="99">
         <f t="shared" si="1"/>
-        <v>17.499999999999996</v>
-      </c>
-      <c r="G9" s="100">
+        <v>25</v>
+      </c>
+      <c r="G9" s="99">
         <f t="shared" si="2"/>
-        <v>2.5000000000000036</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
@@ -1848,22 +1845,22 @@
       <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A10,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A10,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A10,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A10,'Stefan Bolda'!G:G),)</f>
         <v>4</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="103">
         <f t="shared" si="0"/>
-        <v>1.0721465266919812E-2</v>
-      </c>
-      <c r="E10" s="100">
+        <v>9.8623381960139707E-3</v>
+      </c>
+      <c r="E10" s="99">
         <v>5</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="99">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G10" s="100">
+      <c r="G10" s="99">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1875,22 +1872,22 @@
       <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A11,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A11,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A11,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A11,'Stefan Bolda'!G:G),)</f>
         <v>9.5000000000000036</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="103">
         <f t="shared" si="0"/>
-        <v>2.5463480008934565E-2</v>
-      </c>
-      <c r="E11" s="100">
+        <v>2.3423053215533188E-2</v>
+      </c>
+      <c r="E11" s="99">
         <v>10</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="99">
         <f t="shared" si="1"/>
         <v>9.5000000000000036</v>
       </c>
-      <c r="G11" s="100">
+      <c r="G11" s="99">
         <f t="shared" si="2"/>
         <v>0.49999999999999645</v>
       </c>
@@ -1902,56 +1899,56 @@
       <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A12,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A12,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A12,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A12,'Stefan Bolda'!G:G),)</f>
         <v>4.5</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="103">
         <f t="shared" si="0"/>
-        <v>1.2061648425284789E-2</v>
-      </c>
-      <c r="E12" s="100">
+        <v>1.1095130470515717E-2</v>
+      </c>
+      <c r="E12" s="99">
         <v>13</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="99">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="G12" s="100">
+      <c r="G12" s="99">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="B13" s="13"/>
-      <c r="C13" s="100"/>
+      <c r="C13" s="99"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="112">
+      <c r="C14" s="111">
         <f>SUM(C15:C25)</f>
-        <v>141.83333333333334</v>
-      </c>
-      <c r="D14" s="113">
+        <v>154.83333333333337</v>
+      </c>
+      <c r="D14" s="112">
         <f>C14/$C$51</f>
-        <v>0.38016528925619841</v>
-      </c>
-      <c r="E14" s="109">
+        <v>0.3817546743373742</v>
+      </c>
+      <c r="E14" s="108">
         <f>SUM(E15:E23)</f>
         <v>200</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="108">
         <f>SUM(F15:F25)</f>
-        <v>141.83333333333334</v>
-      </c>
-      <c r="G14" s="109">
+        <v>154.83333333333337</v>
+      </c>
+      <c r="G14" s="108">
         <f>E14-F14</f>
-        <v>58.166666666666657</v>
+        <v>45.166666666666629</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75">
@@ -1961,22 +1958,22 @@
       <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A15,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A15,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A15,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A15,'Stefan Bolda'!G:G),)</f>
         <v>3.5000000000000009</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="103">
         <f t="shared" ref="D15:D25" si="3">C15/$C$51</f>
-        <v>9.3812821085548382E-3</v>
-      </c>
-      <c r="E15" s="100">
+        <v>8.6295459215122265E-3</v>
+      </c>
+      <c r="E15" s="99">
         <v>15</v>
       </c>
-      <c r="F15" s="100">
+      <c r="F15" s="99">
         <f>C15</f>
         <v>3.5000000000000009</v>
       </c>
-      <c r="G15" s="100">
+      <c r="G15" s="99">
         <f>E15-F15</f>
         <v>11.5</v>
       </c>
@@ -1988,22 +1985,22 @@
       <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A16,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A16,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A16,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A16,'Stefan Bolda'!G:G),)</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="103">
         <f t="shared" si="3"/>
-        <v>5.3607326334599087E-3</v>
-      </c>
-      <c r="E16" s="100">
+        <v>4.9311690980069879E-3</v>
+      </c>
+      <c r="E16" s="99">
         <v>15</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="99">
         <f t="shared" ref="F16:F36" si="4">C16</f>
         <v>2.0000000000000009</v>
       </c>
-      <c r="G16" s="100">
+      <c r="G16" s="99">
         <f t="shared" ref="G16:G25" si="5">E16-F16</f>
         <v>13</v>
       </c>
@@ -2015,22 +2012,22 @@
       <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A17,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A17,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A17,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A17,'Stefan Bolda'!G:G),)</f>
         <v>10.5</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="103">
         <f t="shared" si="3"/>
-        <v>2.8143846325664509E-2</v>
-      </c>
-      <c r="E17" s="100">
+        <v>2.5888637764536673E-2</v>
+      </c>
+      <c r="E17" s="99">
         <v>25</v>
       </c>
-      <c r="F17" s="100">
+      <c r="F17" s="99">
         <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
-      <c r="G17" s="100">
+      <c r="G17" s="99">
         <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
@@ -2042,22 +2039,22 @@
       <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A18,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A18,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A18,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A18,'Stefan Bolda'!G:G),)</f>
         <v>20.250000000000007</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="103">
         <f t="shared" si="3"/>
-        <v>5.4277417913781573E-2</v>
-      </c>
-      <c r="E18" s="100">
+        <v>4.9928087117320746E-2</v>
+      </c>
+      <c r="E18" s="99">
         <v>25</v>
       </c>
-      <c r="F18" s="100">
+      <c r="F18" s="99">
         <f t="shared" si="4"/>
         <v>20.250000000000007</v>
       </c>
-      <c r="G18" s="100">
+      <c r="G18" s="99">
         <f t="shared" si="5"/>
         <v>4.7499999999999929</v>
       </c>
@@ -2069,22 +2066,22 @@
       <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="100">
+      <c r="C19" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A19,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A19,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A19,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A19,'Stefan Bolda'!G:G),)</f>
         <v>24.833333333333332</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="103">
         <f t="shared" si="3"/>
-        <v>6.6562430198793834E-2</v>
-      </c>
-      <c r="E19" s="100">
+        <v>6.1228682966920064E-2</v>
+      </c>
+      <c r="E19" s="99">
         <v>25</v>
       </c>
-      <c r="F19" s="100">
+      <c r="F19" s="99">
         <f t="shared" si="4"/>
         <v>24.833333333333332</v>
       </c>
-      <c r="G19" s="100">
+      <c r="G19" s="99">
         <f t="shared" si="5"/>
         <v>0.16666666666666785</v>
       </c>
@@ -2096,26 +2093,26 @@
       <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A20,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A20,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A20,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A20,'Stefan Bolda'!G:G),)</f>
-        <v>5.8333333333333357</v>
-      </c>
-      <c r="D20" s="104">
+        <v>7.8333333333333366</v>
+      </c>
+      <c r="D20" s="103">
         <f t="shared" si="3"/>
-        <v>1.5635470180924732E-2</v>
-      </c>
-      <c r="E20" s="100">
+        <v>1.93137456338607E-2</v>
+      </c>
+      <c r="E20" s="99">
         <v>35</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F20" s="99">
         <f t="shared" si="4"/>
-        <v>5.8333333333333357</v>
-      </c>
-      <c r="G20" s="100">
+        <v>7.8333333333333366</v>
+      </c>
+      <c r="G20" s="99">
         <f t="shared" si="5"/>
-        <v>29.166666666666664</v>
-      </c>
-      <c r="L20" s="104"/>
+        <v>27.166666666666664</v>
+      </c>
+      <c r="L20" s="103"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="14" t="s">
@@ -2124,24 +2121,24 @@
       <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A21,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A21,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A21,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A21,'Stefan Bolda'!G:G),)</f>
-        <v>41.5</v>
-      </c>
-      <c r="D21" s="104">
+        <v>52.5</v>
+      </c>
+      <c r="D21" s="103">
         <f t="shared" si="3"/>
-        <v>0.11123520214429305</v>
-      </c>
-      <c r="E21" s="100">
+        <v>0.12944318882268335</v>
+      </c>
+      <c r="E21" s="99">
         <v>25</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="99">
         <f t="shared" si="4"/>
-        <v>41.5</v>
-      </c>
-      <c r="G21" s="100">
+        <v>52.5</v>
+      </c>
+      <c r="G21" s="99">
         <f t="shared" si="5"/>
-        <v>-16.5</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75">
@@ -2151,22 +2148,22 @@
       <c r="B22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A22,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A22,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A22,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A22,'Stefan Bolda'!G:G),)</f>
         <v>13.833333333333332</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="103">
         <f t="shared" si="3"/>
-        <v>3.7078400714764349E-2</v>
-      </c>
-      <c r="E22" s="100">
+        <v>3.4107252927881644E-2</v>
+      </c>
+      <c r="E22" s="99">
         <v>25</v>
       </c>
-      <c r="F22" s="100">
+      <c r="F22" s="99">
         <f t="shared" si="4"/>
         <v>13.833333333333332</v>
       </c>
-      <c r="G22" s="100">
+      <c r="G22" s="99">
         <f t="shared" si="5"/>
         <v>11.166666666666668</v>
       </c>
@@ -2178,22 +2175,22 @@
       <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A23,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A23,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A23,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A23,'Stefan Bolda'!G:G),)</f>
         <v>2.25</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="103">
         <f t="shared" si="3"/>
-        <v>6.0308242126423947E-3</v>
-      </c>
-      <c r="E23" s="100">
+        <v>5.5475652352578583E-3</v>
+      </c>
+      <c r="E23" s="99">
         <v>10</v>
       </c>
-      <c r="F23" s="100">
+      <c r="F23" s="99">
         <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="G23" s="100">
+      <c r="G23" s="99">
         <f t="shared" si="5"/>
         <v>7.75</v>
       </c>
@@ -2205,22 +2202,22 @@
       <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A24,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A24,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A24,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A24,'Stefan Bolda'!G:G),)</f>
         <v>7.8333333333333357</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="103">
         <f t="shared" si="3"/>
-        <v>2.0996202814384642E-2</v>
-      </c>
-      <c r="E24" s="100">
+        <v>1.9313745633860697E-2</v>
+      </c>
+      <c r="E24" s="99">
         <v>10</v>
       </c>
-      <c r="F24" s="100">
+      <c r="F24" s="99">
         <f t="shared" si="4"/>
         <v>7.8333333333333357</v>
       </c>
-      <c r="G24" s="100">
+      <c r="G24" s="99">
         <f t="shared" si="5"/>
         <v>2.1666666666666643</v>
       </c>
@@ -2232,55 +2229,55 @@
       <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A25,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A25,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A25,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A25,'Stefan Bolda'!G:G),)</f>
         <v>9.5000000000000036</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="103">
         <f t="shared" si="3"/>
-        <v>2.5463480008934565E-2</v>
-      </c>
-      <c r="E25" s="100">
+        <v>2.3423053215533188E-2</v>
+      </c>
+      <c r="E25" s="99">
         <v>13</v>
       </c>
-      <c r="F25" s="100">
+      <c r="F25" s="99">
         <f t="shared" si="4"/>
         <v>9.5000000000000036</v>
       </c>
-      <c r="G25" s="100">
+      <c r="G25" s="99">
         <f t="shared" si="5"/>
         <v>3.4999999999999964</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="16"/>
-      <c r="C26" s="100"/>
-      <c r="F26" s="100"/>
+      <c r="C26" s="99"/>
+      <c r="F26" s="99"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="112">
+      <c r="C27" s="111">
         <f>SUM(C28:C38)</f>
         <v>98.833333333333329</v>
       </c>
-      <c r="D27" s="113">
+      <c r="D27" s="112">
         <f>C27/$C$51</f>
-        <v>0.26490953763681035</v>
-      </c>
-      <c r="E27" s="109">
+        <v>0.24368193959317852</v>
+      </c>
+      <c r="E27" s="108">
         <f>SUM(E28:E36)</f>
         <v>205</v>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="108">
         <f>SUM(F28:F38)</f>
         <v>98.833333333333329</v>
       </c>
-      <c r="G27" s="109">
+      <c r="G27" s="108">
         <f>E27-F27</f>
         <v>106.16666666666667</v>
       </c>
@@ -2292,22 +2289,22 @@
       <c r="B28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="100">
+      <c r="C28" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A28,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A28,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A28,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A28,'Stefan Bolda'!G:G),)</f>
         <v>2.7500000000000009</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="103">
         <f t="shared" ref="D28:D38" si="6">C28/$C$51</f>
-        <v>7.3710073710073739E-3</v>
-      </c>
-      <c r="E28" s="100">
+        <v>6.7803575097596068E-3</v>
+      </c>
+      <c r="E28" s="99">
         <v>15</v>
       </c>
-      <c r="F28" s="100">
+      <c r="F28" s="99">
         <f t="shared" si="4"/>
         <v>2.7500000000000009</v>
       </c>
-      <c r="G28" s="100">
+      <c r="G28" s="99">
         <f>E28-F28</f>
         <v>12.25</v>
       </c>
@@ -2319,22 +2316,22 @@
       <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="100">
+      <c r="C29" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A29,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A29,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A29,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A29,'Stefan Bolda'!G:G),)</f>
         <v>13</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="103">
         <f t="shared" si="6"/>
-        <v>3.4844762117489395E-2</v>
-      </c>
-      <c r="E29" s="100">
+        <v>3.2052599137045404E-2</v>
+      </c>
+      <c r="E29" s="99">
         <v>30</v>
       </c>
-      <c r="F29" s="100">
+      <c r="F29" s="99">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G29" s="100">
+      <c r="G29" s="99">
         <f t="shared" ref="G29:G38" si="7">E29-F29</f>
         <v>17</v>
       </c>
@@ -2346,22 +2343,22 @@
       <c r="B30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="100">
+      <c r="C30" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A30,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A30,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A30,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A30,'Stefan Bolda'!G:G),)</f>
         <v>13.999999999999996</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="103">
         <f t="shared" si="6"/>
-        <v>3.7525128434219339E-2</v>
-      </c>
-      <c r="E30" s="100">
+        <v>3.4518183686048892E-2</v>
+      </c>
+      <c r="E30" s="99">
         <v>30</v>
       </c>
-      <c r="F30" s="100">
+      <c r="F30" s="99">
         <f t="shared" si="4"/>
         <v>13.999999999999996</v>
       </c>
-      <c r="G30" s="100">
+      <c r="G30" s="99">
         <f t="shared" si="7"/>
         <v>16.000000000000004</v>
       </c>
@@ -2373,22 +2370,22 @@
       <c r="B31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="100">
+      <c r="C31" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A31,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A31,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A31,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A31,'Stefan Bolda'!G:G),)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="103">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="99">
         <v>30</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G31" s="100">
+      <c r="G31" s="99">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
@@ -2400,22 +2397,22 @@
       <c r="B32" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A32,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A32,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A32,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A32,'Stefan Bolda'!G:G),)</f>
         <v>3.5000000000000009</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="103">
         <f t="shared" si="6"/>
-        <v>9.3812821085548382E-3</v>
-      </c>
-      <c r="E32" s="100">
+        <v>8.6295459215122265E-3</v>
+      </c>
+      <c r="E32" s="99">
         <v>10</v>
       </c>
-      <c r="F32" s="100">
+      <c r="F32" s="99">
         <f t="shared" si="4"/>
         <v>3.5000000000000009</v>
       </c>
-      <c r="G32" s="100">
+      <c r="G32" s="99">
         <f t="shared" si="7"/>
         <v>6.4999999999999991</v>
       </c>
@@ -2427,22 +2424,22 @@
       <c r="B33" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="100">
+      <c r="C33" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A33,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A33,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A33,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A33,'Stefan Bolda'!G:G),)</f>
         <v>0.99999999999999911</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="103">
         <f t="shared" si="6"/>
-        <v>2.6803663167299509E-3</v>
-      </c>
-      <c r="E33" s="100">
+        <v>2.4655845490034905E-3</v>
+      </c>
+      <c r="E33" s="99">
         <v>10</v>
       </c>
-      <c r="F33" s="100">
+      <c r="F33" s="99">
         <f t="shared" si="4"/>
         <v>0.99999999999999911</v>
       </c>
-      <c r="G33" s="100">
+      <c r="G33" s="99">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
@@ -2454,22 +2451,22 @@
       <c r="B34" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="100">
+      <c r="C34" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A34,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A34,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A34,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A34,'Stefan Bolda'!G:G),)</f>
         <v>28</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="103">
         <f t="shared" si="6"/>
-        <v>7.5050256868438692E-2</v>
-      </c>
-      <c r="E34" s="100">
+        <v>6.9036367372097798E-2</v>
+      </c>
+      <c r="E34" s="99">
         <v>50</v>
       </c>
-      <c r="F34" s="100">
+      <c r="F34" s="99">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="G34" s="100">
+      <c r="G34" s="99">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
@@ -2481,22 +2478,22 @@
       <c r="B35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="100">
+      <c r="C35" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A35,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A35,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A35,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A35,'Stefan Bolda'!G:G),)</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="D35" s="104">
+      <c r="D35" s="103">
         <f t="shared" si="6"/>
-        <v>2.9037301764574495E-3</v>
-      </c>
-      <c r="E35" s="100">
+        <v>2.6710499280871176E-3</v>
+      </c>
+      <c r="E35" s="99">
         <v>20</v>
       </c>
-      <c r="F35" s="100">
+      <c r="F35" s="99">
         <f t="shared" si="4"/>
         <v>1.0833333333333335</v>
       </c>
-      <c r="G35" s="100">
+      <c r="G35" s="99">
         <f t="shared" si="7"/>
         <v>18.916666666666668</v>
       </c>
@@ -2508,22 +2505,22 @@
       <c r="B36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A36,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A36,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A36,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A36,'Stefan Bolda'!G:G),)</f>
         <v>5.4999999999999991</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="103">
         <f t="shared" si="6"/>
-        <v>1.4742014742014741E-2</v>
-      </c>
-      <c r="E36" s="100">
+        <v>1.3560715019519208E-2</v>
+      </c>
+      <c r="E36" s="99">
         <v>10</v>
       </c>
-      <c r="F36" s="100">
+      <c r="F36" s="99">
         <f t="shared" si="4"/>
         <v>5.4999999999999991</v>
       </c>
-      <c r="G36" s="100">
+      <c r="G36" s="99">
         <f t="shared" si="7"/>
         <v>4.5000000000000009</v>
       </c>
@@ -2535,22 +2532,22 @@
       <c r="B37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A37,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A37,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A37,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A37,'Stefan Bolda'!G:G),)</f>
         <v>3.5000000000000036</v>
       </c>
-      <c r="D37" s="104">
+      <c r="D37" s="103">
         <f t="shared" si="6"/>
-        <v>9.3812821085548451E-3</v>
-      </c>
-      <c r="E37" s="100">
+        <v>8.6295459215122335E-3</v>
+      </c>
+      <c r="E37" s="99">
         <v>13</v>
       </c>
-      <c r="F37" s="100">
+      <c r="F37" s="99">
         <f>C37</f>
         <v>3.5000000000000036</v>
       </c>
-      <c r="G37" s="100">
+      <c r="G37" s="99">
         <f t="shared" si="7"/>
         <v>9.4999999999999964</v>
       </c>
@@ -2562,22 +2559,22 @@
       <c r="B38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="100">
+      <c r="C38" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A38,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A38,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A38,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A38,'Stefan Bolda'!G:G),)</f>
         <v>26.5</v>
       </c>
-      <c r="D38" s="104">
+      <c r="D38" s="103">
         <f t="shared" si="6"/>
-        <v>7.1029707393343758E-2</v>
-      </c>
-      <c r="E38" s="100">
+        <v>6.5337990548592559E-2</v>
+      </c>
+      <c r="E38" s="99">
         <v>30</v>
       </c>
-      <c r="F38" s="100">
+      <c r="F38" s="99">
         <f>C38</f>
         <v>26.5</v>
       </c>
-      <c r="G38" s="100">
+      <c r="G38" s="99">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
@@ -2585,37 +2582,37 @@
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="14"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
+      <c r="C39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="112">
+      <c r="C40" s="111">
         <f>SUM(C41:C47)</f>
-        <v>53</v>
-      </c>
-      <c r="D40" s="113">
+        <v>64</v>
+      </c>
+      <c r="D40" s="112">
         <f>C40/$C$51</f>
-        <v>0.14205941478668752</v>
-      </c>
-      <c r="E40" s="109">
+        <v>0.15779741113622353</v>
+      </c>
+      <c r="E40" s="108">
         <f>SUM(E41:E46)</f>
         <v>78</v>
       </c>
-      <c r="F40" s="109">
+      <c r="F40" s="108">
         <f>SUM(F41:F47)</f>
-        <v>53</v>
-      </c>
-      <c r="G40" s="109">
+        <v>64</v>
+      </c>
+      <c r="G40" s="108">
         <f>E40-F40</f>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
@@ -2625,22 +2622,22 @@
       <c r="B41" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="100">
+      <c r="C41" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A41,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A41,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A41,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A41,'Stefan Bolda'!G:G),)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="104">
+      <c r="D41" s="103">
         <f t="shared" ref="D41:D47" si="8">C41/$C$51</f>
         <v>0</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="99">
         <v>15</v>
       </c>
-      <c r="F41" s="100">
+      <c r="F41" s="99">
         <f t="shared" ref="F41:F47" si="9">C41</f>
         <v>0</v>
       </c>
-      <c r="G41" s="100">
+      <c r="G41" s="99">
         <f>E41-F41</f>
         <v>15</v>
       </c>
@@ -2652,22 +2649,22 @@
       <c r="B42" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="100">
+      <c r="C42" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A42,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A42,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A42,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A42,'Stefan Bolda'!G:G),)</f>
         <v>12.249999999999998</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="103">
         <f t="shared" si="8"/>
-        <v>3.2834487379941921E-2</v>
-      </c>
-      <c r="E42" s="100">
+        <v>3.0203410725292781E-2</v>
+      </c>
+      <c r="E42" s="99">
         <v>15</v>
       </c>
-      <c r="F42" s="100">
+      <c r="F42" s="99">
         <f t="shared" si="9"/>
         <v>12.249999999999998</v>
       </c>
-      <c r="G42" s="100">
+      <c r="G42" s="99">
         <f t="shared" ref="G42:G47" si="10">E42-F42</f>
         <v>2.7500000000000018</v>
       </c>
@@ -2679,24 +2676,24 @@
       <c r="B43" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A43,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A43,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A43,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A43,'Stefan Bolda'!G:G),)</f>
-        <v>10.499999999999996</v>
-      </c>
-      <c r="D43" s="104">
+        <v>19.499999999999993</v>
+      </c>
+      <c r="D43" s="103">
         <f t="shared" si="8"/>
-        <v>2.8143846325664499E-2</v>
-      </c>
-      <c r="E43" s="100">
+        <v>4.8078898705568092E-2</v>
+      </c>
+      <c r="E43" s="99">
         <v>20</v>
       </c>
-      <c r="F43" s="100">
+      <c r="F43" s="99">
         <f t="shared" si="9"/>
-        <v>10.499999999999996</v>
-      </c>
-      <c r="G43" s="100">
+        <v>19.499999999999993</v>
+      </c>
+      <c r="G43" s="99">
         <f t="shared" si="10"/>
-        <v>9.5000000000000036</v>
+        <v>0.50000000000000711</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75">
@@ -2706,22 +2703,22 @@
       <c r="B44" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="100">
+      <c r="C44" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A44,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A44,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A44,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A44,'Stefan Bolda'!G:G),)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="104">
+      <c r="D44" s="103">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="99">
         <v>5</v>
       </c>
-      <c r="F44" s="100">
+      <c r="F44" s="99">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G44" s="100">
+      <c r="G44" s="99">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -2733,22 +2730,22 @@
       <c r="B45" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="100">
+      <c r="C45" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A45,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A45,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A45,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A45,'Stefan Bolda'!G:G),)</f>
         <v>0.50000000000000089</v>
       </c>
-      <c r="D45" s="104">
+      <c r="D45" s="103">
         <f t="shared" si="8"/>
-        <v>1.3401831583649789E-3</v>
-      </c>
-      <c r="E45" s="100">
+        <v>1.2327922745017485E-3</v>
+      </c>
+      <c r="E45" s="99">
         <v>10</v>
       </c>
-      <c r="F45" s="100">
+      <c r="F45" s="99">
         <f t="shared" si="9"/>
         <v>0.50000000000000089</v>
       </c>
-      <c r="G45" s="100">
+      <c r="G45" s="99">
         <f t="shared" si="10"/>
         <v>9.5</v>
       </c>
@@ -2760,22 +2757,22 @@
       <c r="B46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="100">
+      <c r="C46" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A46,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A46,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A46,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A46,'Stefan Bolda'!G:G),)</f>
         <v>8.0000000000000036</v>
       </c>
-      <c r="D46" s="104">
+      <c r="D46" s="103">
         <f t="shared" si="8"/>
-        <v>2.1442930533839635E-2</v>
-      </c>
-      <c r="E46" s="100">
+        <v>1.9724676392027952E-2</v>
+      </c>
+      <c r="E46" s="99">
         <v>13</v>
       </c>
-      <c r="F46" s="100">
+      <c r="F46" s="99">
         <f t="shared" si="9"/>
         <v>8.0000000000000036</v>
       </c>
-      <c r="G46" s="100">
+      <c r="G46" s="99">
         <f t="shared" si="10"/>
         <v>4.9999999999999964</v>
       </c>
@@ -2787,71 +2784,71 @@
       <c r="B47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="100">
+      <c r="C47" s="99">
         <f>SUM(SUMIF('Anna Gartner'!E:E,Aufgaben!A47,'Anna Gartner'!G:G),SUMIF('Hinterhölzl Stefan'!E:E,Aufgaben!A47,'Hinterhölzl Stefan'!G:G), SUMIF('Alexander Famler'!E:E,Aufgaben!A47,'Alexander Famler'!G:G), SUMIF('Stefan Bolda'!E:E,Aufgaben!A47,'Stefan Bolda'!G:G),)</f>
-        <v>21.75</v>
-      </c>
-      <c r="D47" s="104">
+        <v>23.75</v>
+      </c>
+      <c r="D47" s="103">
         <f t="shared" si="8"/>
-        <v>5.8297967388876486E-2</v>
-      </c>
-      <c r="E47" s="100">
+        <v>5.8557633038832949E-2</v>
+      </c>
+      <c r="E47" s="99">
         <v>10</v>
       </c>
-      <c r="F47" s="100">
+      <c r="F47" s="99">
         <f t="shared" si="9"/>
-        <v>21.75</v>
-      </c>
-      <c r="G47" s="100">
+        <v>23.75</v>
+      </c>
+      <c r="G47" s="99">
         <f t="shared" si="10"/>
-        <v>-11.75</v>
+        <v>-13.75</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="14"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
+      <c r="C48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="14"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
+      <c r="C49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="16"/>
-      <c r="F50" s="100"/>
+      <c r="F50" s="99"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="108"/>
-      <c r="C51" s="105">
+      <c r="B51" s="107"/>
+      <c r="C51" s="104">
         <f>SUM(C40,C27,C14,C4)</f>
-        <v>373.08333333333331</v>
-      </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105">
+        <v>405.58333333333337</v>
+      </c>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104">
         <f>SUM(E40,E27,E14,E4)</f>
         <v>579</v>
       </c>
-      <c r="F51" s="105">
+      <c r="F51" s="104">
         <f>SUM(F40,F27,F14,F4)</f>
-        <v>373.08333333333331</v>
-      </c>
-      <c r="G51" s="105">
+        <v>405.58333333333337</v>
+      </c>
+      <c r="G51" s="104">
         <f>E51-F51</f>
-        <v>205.91666666666669</v>
+        <v>173.41666666666663</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75">
-      <c r="F52" s="100"/>
+      <c r="F52" s="99"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2878,7 +2875,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="38" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="35" customWidth="1"/>
@@ -2979,7 +2976,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26">
         <f ca="1">INDIRECT("'"&amp;A8&amp;"'!G4")</f>
-        <v>21</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="20" customFormat="1" ht="16.5" thickBot="1">
@@ -2992,7 +2989,7 @@
       <c r="D9" s="28"/>
       <c r="E9" s="29">
         <f ca="1">SUM(E5:E8)</f>
-        <v>373.08333333333337</v>
+        <v>405.58333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="33" customFormat="1" ht="13.5" thickTop="1">
@@ -7396,11 +7393,11 @@
   </sheetPr>
   <dimension ref="A1:K521"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71:J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="71" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="72" customWidth="1"/>
@@ -7425,9 +7422,9 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="26.25">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="5" t="e">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>Zeitkonto von Hinterhölzl Stefan</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -7706,13 +7703,13 @@
       <c r="B15" s="63">
         <v>44298</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="96">
         <v>0.8125</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="96">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="97" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="62" t="str">
@@ -7733,13 +7730,13 @@
       <c r="B16" s="63">
         <v>44298</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="96">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="96">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="97" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="62" t="str">
@@ -7759,13 +7756,13 @@
       <c r="B17" s="63">
         <v>44299</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="96">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="96">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="97" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="62" t="str">
@@ -7785,13 +7782,13 @@
       <c r="B18" s="63">
         <v>44300</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="96">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="96">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="97" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="62" t="str">
@@ -7811,13 +7808,13 @@
       <c r="B19" s="63">
         <v>44300</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="96">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="96">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="62" t="str">
@@ -7837,13 +7834,13 @@
       <c r="B20" s="63">
         <v>44300</v>
       </c>
-      <c r="C20" s="97">
+      <c r="C20" s="96">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="62" t="str">
@@ -7863,13 +7860,13 @@
       <c r="B21" s="63">
         <v>44301</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="96">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="96">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="62" t="str">
@@ -7890,13 +7887,13 @@
       <c r="B22" s="63">
         <v>44303</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="96">
         <v>0.5</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="96">
         <v>0.6875</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="62" t="str">
@@ -7916,13 +7913,13 @@
       <c r="B23" s="63">
         <v>44303</v>
       </c>
-      <c r="C23" s="97">
+      <c r="C23" s="96">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="96">
         <v>0.8125</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="62" t="str">
@@ -7942,13 +7939,13 @@
       <c r="B24" s="63">
         <v>44303</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="96">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="96">
         <v>1</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="62" t="str">
@@ -7968,13 +7965,13 @@
       <c r="B25" s="63">
         <v>44304</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="96">
         <v>0.375</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="96">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="62" t="str">
@@ -7994,13 +7991,13 @@
       <c r="B26" s="63">
         <v>44304</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="96">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="96">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="62" t="str">
@@ -8020,13 +8017,13 @@
       <c r="B27" s="63">
         <v>44304</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="96">
         <v>0.75</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="96">
         <v>0.84722222222222221</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="62" t="str">
@@ -8046,13 +8043,13 @@
       <c r="B28" s="63">
         <v>44305</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="96">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D28" s="96">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="62" t="str">
@@ -8072,13 +8069,13 @@
       <c r="B29" s="63">
         <v>44305</v>
       </c>
-      <c r="C29" s="97">
+      <c r="C29" s="96">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D29" s="97">
+      <c r="D29" s="96">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="62" t="str">
@@ -8098,13 +8095,13 @@
       <c r="B30" s="63">
         <v>44305</v>
       </c>
-      <c r="C30" s="97">
+      <c r="C30" s="96">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D30" s="96">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="62" t="str">
@@ -8124,13 +8121,13 @@
       <c r="B31" s="63">
         <v>44305</v>
       </c>
-      <c r="C31" s="97">
+      <c r="C31" s="96">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="96">
         <v>0.76388888888888884</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F31" s="62" t="str">
@@ -8150,13 +8147,13 @@
       <c r="B32" s="63">
         <v>44306</v>
       </c>
-      <c r="C32" s="97">
+      <c r="C32" s="96">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="96">
         <v>0.625</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="97" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="62" t="str">
@@ -8176,13 +8173,13 @@
       <c r="B33" s="63">
         <v>44307</v>
       </c>
-      <c r="C33" s="97">
+      <c r="C33" s="96">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="96">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="62" t="str">
@@ -8202,13 +8199,13 @@
       <c r="B34" s="63">
         <v>44308</v>
       </c>
-      <c r="C34" s="97">
+      <c r="C34" s="96">
         <v>0</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="96">
         <v>6.25E-2</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="62" t="str">
@@ -8228,13 +8225,13 @@
       <c r="B35" s="63">
         <v>44308</v>
       </c>
-      <c r="C35" s="97">
+      <c r="C35" s="96">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="96">
         <v>0.625</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="62" t="str">
@@ -8254,13 +8251,13 @@
       <c r="B36" s="63">
         <v>44308</v>
       </c>
-      <c r="C36" s="97">
+      <c r="C36" s="96">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D36" s="96">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E36" s="98" t="s">
+      <c r="E36" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F36" s="62" t="str">
@@ -8280,13 +8277,13 @@
       <c r="B37" s="63">
         <v>44308</v>
       </c>
-      <c r="C37" s="97">
+      <c r="C37" s="96">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D37" s="96">
         <v>6.25E-2</v>
       </c>
-      <c r="E37" s="98" t="s">
+      <c r="E37" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="62" t="str">
@@ -8306,13 +8303,13 @@
       <c r="B38" s="63">
         <v>44309</v>
       </c>
-      <c r="C38" s="97">
+      <c r="C38" s="96">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D38" s="97">
+      <c r="D38" s="96">
         <v>0.46875</v>
       </c>
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="62" t="str">
@@ -8332,13 +8329,13 @@
       <c r="B39" s="63">
         <v>44309</v>
       </c>
-      <c r="C39" s="97">
+      <c r="C39" s="96">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D39" s="96">
         <v>0.625</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="62" t="str">
@@ -8358,13 +8355,13 @@
       <c r="B40" s="63">
         <v>44309</v>
       </c>
-      <c r="C40" s="97">
+      <c r="C40" s="96">
         <v>0.625</v>
       </c>
-      <c r="D40" s="97">
+      <c r="D40" s="96">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="97" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="62" t="str">
@@ -8384,13 +8381,13 @@
       <c r="B41" s="63">
         <v>44310</v>
       </c>
-      <c r="C41" s="97">
+      <c r="C41" s="96">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E41" s="98" t="s">
+      <c r="E41" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="62" t="str">
@@ -8410,13 +8407,13 @@
       <c r="B42" s="63">
         <v>44310</v>
       </c>
-      <c r="C42" s="97">
+      <c r="C42" s="96">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D42" s="97">
+      <c r="D42" s="96">
         <v>0.5</v>
       </c>
-      <c r="E42" s="98" t="s">
+      <c r="E42" s="97" t="s">
         <v>37</v>
       </c>
       <c r="F42" s="62" t="str">
@@ -8436,13 +8433,13 @@
       <c r="B43" s="63">
         <v>44310</v>
       </c>
-      <c r="C43" s="97">
+      <c r="C43" s="96">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D43" s="96">
         <v>0.625</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="62" t="str">
@@ -8462,13 +8459,13 @@
       <c r="B44" s="63">
         <v>44310</v>
       </c>
-      <c r="C44" s="97">
+      <c r="C44" s="96">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D44" s="97">
+      <c r="D44" s="96">
         <v>0.75</v>
       </c>
-      <c r="E44" s="98" t="s">
+      <c r="E44" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F44" s="62" t="str">
@@ -8488,13 +8485,13 @@
       <c r="B45" s="63">
         <v>44310</v>
       </c>
-      <c r="C45" s="97">
+      <c r="C45" s="96">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D45" s="96">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E45" s="98" t="s">
+      <c r="E45" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F45" s="62" t="str">
@@ -8514,13 +8511,13 @@
       <c r="B46" s="63">
         <v>44311</v>
       </c>
-      <c r="C46" s="97">
+      <c r="C46" s="96">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D46" s="97">
+      <c r="D46" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E46" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="62" t="str">
@@ -8540,13 +8537,13 @@
       <c r="B47" s="63">
         <v>44311</v>
       </c>
-      <c r="C47" s="97">
+      <c r="C47" s="96">
         <v>0.375</v>
       </c>
-      <c r="D47" s="97">
+      <c r="D47" s="96">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E47" s="98" t="s">
+      <c r="E47" s="97" t="s">
         <v>43</v>
       </c>
       <c r="F47" s="62" t="str">
@@ -8566,13 +8563,13 @@
       <c r="B48" s="63">
         <v>44312</v>
       </c>
-      <c r="C48" s="97">
+      <c r="C48" s="96">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D48" s="97">
+      <c r="D48" s="96">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="97" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="62" t="str">
@@ -8592,13 +8589,13 @@
       <c r="B49" s="63">
         <v>44313</v>
       </c>
-      <c r="C49" s="97">
+      <c r="C49" s="96">
         <v>0.5</v>
       </c>
-      <c r="D49" s="97">
+      <c r="D49" s="96">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E49" s="98" t="s">
+      <c r="E49" s="97" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="62" t="str">
@@ -8618,13 +8615,13 @@
       <c r="B50" s="63">
         <v>44313</v>
       </c>
-      <c r="C50" s="97">
+      <c r="C50" s="96">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D50" s="97">
+      <c r="D50" s="96">
         <v>0.90972222222222221</v>
       </c>
-      <c r="E50" s="98" t="s">
+      <c r="E50" s="97" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="62" t="str">
@@ -8644,13 +8641,13 @@
       <c r="B51" s="63">
         <v>44314</v>
       </c>
-      <c r="C51" s="97">
+      <c r="C51" s="96">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D51" s="97">
+      <c r="D51" s="96">
         <v>6.25E-2</v>
       </c>
-      <c r="E51" s="98" t="s">
+      <c r="E51" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F51" s="62" t="str">
@@ -8670,13 +8667,13 @@
       <c r="B52" s="63">
         <v>44314</v>
       </c>
-      <c r="C52" s="97">
+      <c r="C52" s="96">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D52" s="97">
+      <c r="D52" s="96">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="E52" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="62" t="str">
@@ -8696,13 +8693,13 @@
       <c r="B53" s="63">
         <v>44314</v>
       </c>
-      <c r="C53" s="97">
+      <c r="C53" s="96">
         <v>0.46875</v>
       </c>
-      <c r="D53" s="97">
+      <c r="D53" s="96">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E53" s="98" t="s">
+      <c r="E53" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F53" s="62" t="str">
@@ -8722,13 +8719,13 @@
       <c r="B54" s="63">
         <v>44314</v>
       </c>
-      <c r="C54" s="97">
+      <c r="C54" s="96">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D54" s="97">
+      <c r="D54" s="96">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E54" s="98" t="s">
+      <c r="E54" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F54" s="62" t="str">
@@ -8748,13 +8745,13 @@
       <c r="B55" s="63">
         <v>44314</v>
       </c>
-      <c r="C55" s="97">
+      <c r="C55" s="96">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D55" s="97">
+      <c r="D55" s="96">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E55" s="98" t="s">
+      <c r="E55" s="97" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="62" t="str">
@@ -8774,13 +8771,13 @@
       <c r="B56" s="63">
         <v>44314</v>
       </c>
-      <c r="C56" s="97">
+      <c r="C56" s="96">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D56" s="97">
+      <c r="D56" s="96">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E56" s="98" t="s">
+      <c r="E56" s="97" t="s">
         <v>47</v>
       </c>
       <c r="F56" s="62" t="str">
@@ -8800,13 +8797,13 @@
       <c r="B57" s="63">
         <v>44315</v>
       </c>
-      <c r="C57" s="97">
+      <c r="C57" s="96">
         <v>0</v>
       </c>
-      <c r="D57" s="97">
+      <c r="D57" s="96">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E57" s="98" t="s">
+      <c r="E57" s="97" t="s">
         <v>41</v>
       </c>
       <c r="F57" s="62" t="str">
@@ -8999,7 +8996,7 @@
         <f t="shared" si="1"/>
         <v>1.1666666666666679</v>
       </c>
-      <c r="H64" s="122"/>
+      <c r="H64" s="121"/>
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="47" t="str">
@@ -9468,7 +9465,7 @@
         <f t="shared" si="3"/>
         <v>0.50000000000000089</v>
       </c>
-      <c r="K82" s="122"/>
+      <c r="K82" s="121"/>
     </row>
     <row r="83" spans="1:11" ht="15.75">
       <c r="A83" s="47" t="str">
@@ -9911,7 +9908,7 @@
         <f t="shared" si="4"/>
         <v>0.99999999999999911</v>
       </c>
-      <c r="J99" s="122"/>
+      <c r="J99" s="121"/>
     </row>
     <row r="100" spans="1:10" ht="15.75">
       <c r="A100" s="47" t="str">
@@ -14154,11 +14151,11 @@
   </sheetPr>
   <dimension ref="A1:G922"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7" style="65" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="66" customWidth="1"/>
@@ -14183,9 +14180,9 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="26.25">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="5" t="e">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>Zeitkonto von Stefan Bolda</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -14329,27 +14326,27 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="20" customFormat="1" ht="15.75">
-      <c r="A10" s="119" t="str">
+      <c r="A10" s="118" t="str">
         <f>IF(B10&lt;&gt;"",TEXT(B10,"TTT"),"")</f>
         <v>Mo</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="117">
         <v>44270</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="116">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="116">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="116" t="str">
+      <c r="F10" s="115" t="str">
         <f>IF(ISBLANK(E10),"",VLOOKUP(E10,Aufgaben!A:B,2,FALSE))</f>
         <v>Projektumgebungen aufsetzen</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="120">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -14388,7 +14385,7 @@
       <c r="B12" s="63">
         <v>44297</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="116">
         <v>0.625</v>
       </c>
       <c r="D12" s="64">
@@ -14544,10 +14541,10 @@
       <c r="B18" s="63">
         <v>44309</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="96">
         <v>0.625</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="96">
         <v>0.6875</v>
       </c>
       <c r="E18" s="61" t="s">
@@ -29931,11 +29928,11 @@
   </sheetPr>
   <dimension ref="A1:G915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="65" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="66" customWidth="1"/>
@@ -29960,9 +29957,9 @@
       <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="26.25">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="5" t="e">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>Zeitkonto von Alexander Famler</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -30100,7 +30097,7 @@
         <f>IF(ISBLANK(E9),"",VLOOKUP(E9,Aufgaben!A:B,2,FALSE))</f>
         <v>Mikroservice Architektur festelgen</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="98">
         <f t="shared" ref="G9:G37" si="2">IF(B9&lt;&gt;"",IF(D9&lt;C9,1-C9+D9,D9-C9)*24,"")</f>
         <v>3</v>
       </c>
@@ -30118,14 +30115,14 @@
       <c r="D10" s="64">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="113" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="62" t="str">
         <f>IF(ISBLANK(E10),"",VLOOKUP(E10,Aufgaben!A:B,2,FALSE))</f>
         <v>Erste Technologierecherchen</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="98">
         <f t="shared" si="2"/>
         <v>4.9999999999999982</v>
       </c>
@@ -30150,33 +30147,33 @@
         <f>IF(ISBLANK(E11),"",VLOOKUP(E11,Aufgaben!A:B,2,FALSE))</f>
         <v>Projektumgebungen aufsetzen</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="98">
         <f>IF(B11&lt;&gt;"",IF(D11&lt;C11,1-C11+D11,D11-C11)*24,"")</f>
         <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="119" t="str">
+      <c r="A12" s="118" t="str">
         <f>IF(B12&lt;&gt;"",TEXT(B12,"TTT"),"")</f>
         <v>Fr</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="117">
         <v>44295</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="116">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="116">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="116" t="str">
+      <c r="F12" s="115" t="str">
         <f>IF(ISBLANK(E12),"",VLOOKUP(E12,Aufgaben!A:B,2,FALSE))</f>
         <v>Präsentation vorbereiten</v>
       </c>
-      <c r="G12" s="115">
+      <c r="G12" s="114">
         <f>IF(B12&lt;&gt;"",IF(D12&lt;C12,1-C12+D12,D12-C12)*24,"")</f>
         <v>1.5</v>
       </c>
@@ -30201,7 +30198,7 @@
         <f>IF(ISBLANK(E13),"",VLOOKUP(E13,Aufgaben!A:B,2,FALSE))</f>
         <v>An Besprechungen teilnehmen</v>
       </c>
-      <c r="G13" s="99">
+      <c r="G13" s="98">
         <f t="shared" si="2"/>
         <v>0.99999999999999911</v>
       </c>
@@ -30239,13 +30236,13 @@
       <c r="B15" s="63">
         <v>44305</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="96">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="96">
         <v>0.625</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="97" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="62" t="str">
@@ -30278,7 +30275,7 @@
         <f>IF(ISBLANK(E16),"",VLOOKUP(E16,Aufgaben!A:B,2,FALSE))</f>
         <v>Couchbase + API beginnen</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="98">
         <f t="shared" si="2"/>
         <v>3.0000000000000013</v>
       </c>
@@ -30304,7 +30301,7 @@
         <f>IF(ISBLANK(E17),"",VLOOKUP(E17,Aufgaben!A:B,2,FALSE))</f>
         <v>Datenbankschemen  überlegen</v>
       </c>
-      <c r="G17" s="99">
+      <c r="G17" s="98">
         <f t="shared" si="2"/>
         <v>2.0000000000000009</v>
       </c>
@@ -30330,7 +30327,7 @@
         <f>IF(ISBLANK(E18),"",VLOOKUP(E18,Aufgaben!A:B,2,FALSE))</f>
         <v>Couchbase + API beginnen</v>
       </c>
-      <c r="G18" s="99">
+      <c r="G18" s="98">
         <f t="shared" ref="G18:G29" si="4">IF(B18&lt;&gt;"",IF(D18&lt;C18,1-C18+D18,D18-C18)*24,"")</f>
         <v>1.9999999999999996</v>
       </c>
@@ -30356,7 +30353,7 @@
         <f>IF(ISBLANK(E19),"",VLOOKUP(E19,Aufgaben!A:B,2,FALSE))</f>
         <v>Couchbase + API beginnen</v>
       </c>
-      <c r="G19" s="99">
+      <c r="G19" s="98">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
@@ -30382,7 +30379,7 @@
         <f>IF(ISBLANK(E20),"",VLOOKUP(E20,Aufgaben!A:B,2,FALSE))</f>
         <v>Präsentation vorbereiten</v>
       </c>
-      <c r="G20" s="99">
+      <c r="G20" s="98">
         <f t="shared" si="4"/>
         <v>0.50000000000000089</v>
       </c>
@@ -30408,7 +30405,7 @@
         <f>IF(ISBLANK(E21),"",VLOOKUP(E21,Aufgaben!A:B,2,FALSE))</f>
         <v>Präsentationen</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="98">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
@@ -30434,7 +30431,7 @@
         <f>IF(ISBLANK(E22),"",VLOOKUP(E22,Aufgaben!A:B,2,FALSE))</f>
         <v>Fertigstellung der Couchbase DB</v>
       </c>
-      <c r="G22" s="99">
+      <c r="G22" s="98">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -30460,7 +30457,7 @@
         <f>IF(ISBLANK(E23),"",VLOOKUP(E23,Aufgaben!A:B,2,FALSE))</f>
         <v>Fertigstellung der Couchbase DB</v>
       </c>
-      <c r="G23" s="99">
+      <c r="G23" s="98">
         <f t="shared" si="4"/>
         <v>2.0000000000000009</v>
       </c>
@@ -30486,7 +30483,7 @@
         <f>IF(ISBLANK(E24),"",VLOOKUP(E24,Aufgaben!A:B,2,FALSE))</f>
         <v>Integrationstest der gesamten Landschaft</v>
       </c>
-      <c r="G24" s="99">
+      <c r="G24" s="98">
         <f t="shared" si="4"/>
         <v>0.50000000000000089</v>
       </c>
@@ -30511,7 +30508,7 @@
         <f>IF(ISBLANK(E25),"",VLOOKUP(E25,Aufgaben!A:B,2,FALSE))</f>
         <v>NotificationService mit Redis</v>
       </c>
-      <c r="G25" s="99">
+      <c r="G25" s="98">
         <f t="shared" si="4"/>
         <v>3.9999999999999991</v>
       </c>
@@ -30536,7 +30533,7 @@
         <f>IF(ISBLANK(E26),"",VLOOKUP(E26,Aufgaben!A:B,2,FALSE))</f>
         <v>NotificationService mit Redis</v>
       </c>
-      <c r="G26" s="99">
+      <c r="G26" s="98">
         <f t="shared" ref="G26" si="5">IF(B26&lt;&gt;"",IF(D26&lt;C26,1-C26+D26,D26-C26)*24,"")</f>
         <v>5.0000000000000009</v>
       </c>
@@ -30562,7 +30559,7 @@
         <f>IF(ISBLANK(E27),"",VLOOKUP(E27,Aufgaben!A:B,2,FALSE))</f>
         <v>NotificationService mit Redis</v>
       </c>
-      <c r="G27" s="99">
+      <c r="G27" s="98">
         <f t="shared" si="4"/>
         <v>2.4999999999999991</v>
       </c>
@@ -30588,7 +30585,7 @@
         <f>IF(ISBLANK(E28),"",VLOOKUP(E28,Aufgaben!A:B,2,FALSE))</f>
         <v>NotificationService mit Redis</v>
       </c>
-      <c r="G28" s="99">
+      <c r="G28" s="98">
         <f t="shared" si="4"/>
         <v>4.9999999999999982</v>
       </c>
@@ -30614,7 +30611,7 @@
         <f>IF(ISBLANK(E29),"",VLOOKUP(E29,Aufgaben!A:B,2,FALSE))</f>
         <v>Präsentation vorbereiten</v>
       </c>
-      <c r="G29" s="99">
+      <c r="G29" s="98">
         <f t="shared" si="4"/>
         <v>2.4999999999999991</v>
       </c>
@@ -30640,7 +30637,7 @@
         <f>IF(ISBLANK(E30),"",VLOOKUP(E30,Aufgaben!A:B,2,FALSE))</f>
         <v>Präsentationen</v>
       </c>
-      <c r="G30" s="99">
+      <c r="G30" s="98">
         <f t="shared" si="2"/>
         <v>1.7500000000000018</v>
       </c>
@@ -30666,7 +30663,7 @@
         <f>IF(ISBLANK(E31),"",VLOOKUP(E31,Aufgaben!A:B,2,FALSE))</f>
         <v>NotificationService mit Redis</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="98">
         <f t="shared" si="2"/>
         <v>3.9999999999999991</v>
       </c>
@@ -30692,7 +30689,7 @@
         <f>IF(ISBLANK(E32),"",VLOOKUP(E32,Aufgaben!A:B,2,FALSE))</f>
         <v>NotificationService mit Redis</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G32" s="98">
         <f t="shared" si="2"/>
         <v>5.0000000000000009</v>
       </c>
@@ -30718,7 +30715,7 @@
         <f>IF(ISBLANK(E33),"",VLOOKUP(E33,Aufgaben!A:B,2,FALSE))</f>
         <v>Dokumentation</v>
       </c>
-      <c r="G33" s="99">
+      <c r="G33" s="98">
         <f t="shared" si="2"/>
         <v>1.9999999999999996</v>
       </c>
@@ -30744,7 +30741,7 @@
         <f>IF(ISBLANK(E34),"",VLOOKUP(E34,Aufgaben!A:B,2,FALSE))</f>
         <v>Weitere Integrationstest</v>
       </c>
-      <c r="G34" s="99">
+      <c r="G34" s="98">
         <f t="shared" si="2"/>
         <v>2.7499999999999982</v>
       </c>
@@ -30770,7 +30767,7 @@
         <f>IF(ISBLANK(E35),"",VLOOKUP(E35,Aufgaben!A:B,2,FALSE))</f>
         <v>Dokumentation</v>
       </c>
-      <c r="G35" s="99">
+      <c r="G35" s="98">
         <f t="shared" si="2"/>
         <v>1.9999999999999982</v>
       </c>
@@ -30796,7 +30793,7 @@
         <f>IF(ISBLANK(E36),"",VLOOKUP(E36,Aufgaben!A:B,2,FALSE))</f>
         <v>Dokumentation</v>
       </c>
-      <c r="G36" s="99">
+      <c r="G36" s="98">
         <f t="shared" si="2"/>
         <v>2.9999999999999987</v>
       </c>
@@ -30822,7 +30819,7 @@
         <f>IF(ISBLANK(E37),"",VLOOKUP(E37,Aufgaben!A:B,2,FALSE))</f>
         <v>Präsentationen</v>
       </c>
-      <c r="G37" s="99">
+      <c r="G37" s="98">
         <f t="shared" si="2"/>
         <v>2.0000000000000009</v>
       </c>
@@ -30840,7 +30837,7 @@
         <f>IF(ISBLANK(E38),"",VLOOKUP(E38,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G38" s="99" t="str">
+      <c r="G38" s="98" t="str">
         <f>IF(B38&lt;&gt;"",IF(D38&lt;C38,1-C38+D38,D38-C38)*24,"")</f>
         <v/>
       </c>
@@ -30858,7 +30855,7 @@
         <f>IF(ISBLANK(E39),"",VLOOKUP(E39,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G39" s="99" t="str">
+      <c r="G39" s="98" t="str">
         <f>IF(B39&lt;&gt;"",IF(D39&lt;C39,1-C39+D39,D39-C39)*24,"")</f>
         <v/>
       </c>
@@ -30876,7 +30873,7 @@
         <f>IF(ISBLANK(E40),"",VLOOKUP(E40,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G40" s="99" t="str">
+      <c r="G40" s="98" t="str">
         <f>IF(B40&lt;&gt;"",IF(D40&lt;C40,1-C40+D40,D40-C40)*24,"")</f>
         <v/>
       </c>
@@ -30894,7 +30891,7 @@
         <f>IF(ISBLANK(E41),"",VLOOKUP(E41,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G41" s="99" t="str">
+      <c r="G41" s="98" t="str">
         <f t="shared" ref="G41:G56" si="6">IF(B41&lt;&gt;"",IF(D41&lt;C41,1-C41+D41,D41-C41)*24,"")</f>
         <v/>
       </c>
@@ -30912,7 +30909,7 @@
         <f>IF(ISBLANK(E42),"",VLOOKUP(E42,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G42" s="99" t="str">
+      <c r="G42" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -30930,7 +30927,7 @@
         <f>IF(ISBLANK(E43),"",VLOOKUP(E43,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G43" s="99" t="str">
+      <c r="G43" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -30948,7 +30945,7 @@
         <f>IF(ISBLANK(E44),"",VLOOKUP(E44,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G44" s="99" t="str">
+      <c r="G44" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -30966,7 +30963,7 @@
         <f>IF(ISBLANK(E45),"",VLOOKUP(E45,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G45" s="99" t="str">
+      <c r="G45" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -30984,7 +30981,7 @@
         <f>IF(ISBLANK(E46),"",VLOOKUP(E46,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G46" s="99" t="str">
+      <c r="G46" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31002,7 +30999,7 @@
         <f>IF(ISBLANK(E47),"",VLOOKUP(E47,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G47" s="99" t="str">
+      <c r="G47" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31020,7 +31017,7 @@
         <f>IF(ISBLANK(E48),"",VLOOKUP(E48,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G48" s="99" t="str">
+      <c r="G48" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31038,7 +31035,7 @@
         <f>IF(ISBLANK(E49),"",VLOOKUP(E49,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G49" s="99" t="str">
+      <c r="G49" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31056,7 +31053,7 @@
         <f>IF(ISBLANK(E50),"",VLOOKUP(E50,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G50" s="99" t="str">
+      <c r="G50" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31074,7 +31071,7 @@
         <f>IF(ISBLANK(E51),"",VLOOKUP(E51,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G51" s="99" t="str">
+      <c r="G51" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31092,7 +31089,7 @@
         <f>IF(ISBLANK(E52),"",VLOOKUP(E52,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G52" s="99" t="str">
+      <c r="G52" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31128,7 +31125,7 @@
         <f>IF(ISBLANK(E54),"",VLOOKUP(E54,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G54" s="99" t="str">
+      <c r="G54" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31146,7 +31143,7 @@
         <f>IF(ISBLANK(E55),"",VLOOKUP(E55,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G55" s="99" t="str">
+      <c r="G55" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31164,7 +31161,7 @@
         <f>IF(ISBLANK(E56),"",VLOOKUP(E56,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G56" s="99" t="str">
+      <c r="G56" s="98" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -31182,7 +31179,7 @@
         <f>IF(ISBLANK(E57),"",VLOOKUP(E57,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G57" s="99" t="str">
+      <c r="G57" s="98" t="str">
         <f>IF(B58&lt;&gt;"",IF(D57&lt;C57,1-C57+D57,D57-C57)*24,"")</f>
         <v/>
       </c>
@@ -31200,7 +31197,7 @@
         <f>IF(ISBLANK(E58),"",VLOOKUP(E58,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G58" s="99" t="str">
+      <c r="G58" s="98" t="str">
         <f>IF(B58&lt;&gt;"",IF(D58&lt;C58,1-C58+D58,D58-C58)*24,"")</f>
         <v/>
       </c>
@@ -31218,7 +31215,7 @@
         <f>IF(ISBLANK(E59),"",VLOOKUP(E59,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G59" s="99" t="str">
+      <c r="G59" s="98" t="str">
         <f>IF(B59&lt;&gt;"",IF(D59&lt;C59,1-C59+D59,D59-C59)*24,"")</f>
         <v/>
       </c>
@@ -31254,7 +31251,7 @@
         <f>IF(ISBLANK(E61),"",VLOOKUP(E61,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G61" s="99" t="str">
+      <c r="G61" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31272,7 +31269,7 @@
         <f>IF(ISBLANK(E62),"",VLOOKUP(E62,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G62" s="99" t="str">
+      <c r="G62" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31290,7 +31287,7 @@
         <f>IF(ISBLANK(E63),"",VLOOKUP(E63,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G63" s="99" t="str">
+      <c r="G63" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31308,7 +31305,7 @@
         <f>IF(ISBLANK(E64),"",VLOOKUP(E64,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G64" s="99" t="str">
+      <c r="G64" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31326,7 +31323,7 @@
         <f>IF(ISBLANK(E65),"",VLOOKUP(E65,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G65" s="99" t="str">
+      <c r="G65" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31344,7 +31341,7 @@
         <f>IF(ISBLANK(E66),"",VLOOKUP(E66,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G66" s="99" t="str">
+      <c r="G66" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31362,7 +31359,7 @@
         <f>IF(ISBLANK(E67),"",VLOOKUP(E67,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G67" s="99" t="str">
+      <c r="G67" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31380,7 +31377,7 @@
         <f>IF(ISBLANK(E68),"",VLOOKUP(E68,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G68" s="99" t="str">
+      <c r="G68" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31398,7 +31395,7 @@
         <f>IF(ISBLANK(E69),"",VLOOKUP(E69,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G69" s="99" t="str">
+      <c r="G69" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31416,7 +31413,7 @@
         <f>IF(ISBLANK(E70),"",VLOOKUP(E70,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G70" s="99" t="str">
+      <c r="G70" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31434,7 +31431,7 @@
         <f>IF(ISBLANK(E71),"",VLOOKUP(E71,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G71" s="99" t="str">
+      <c r="G71" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31452,7 +31449,7 @@
         <f>IF(ISBLANK(E72),"",VLOOKUP(E72,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G72" s="99" t="str">
+      <c r="G72" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31470,7 +31467,7 @@
         <f>IF(ISBLANK(E73),"",VLOOKUP(E73,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G73" s="99" t="str">
+      <c r="G73" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31488,7 +31485,7 @@
         <f>IF(ISBLANK(E74),"",VLOOKUP(E74,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G74" s="99" t="str">
+      <c r="G74" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31506,7 +31503,7 @@
         <f>IF(ISBLANK(E75),"",VLOOKUP(E75,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G75" s="99" t="str">
+      <c r="G75" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31524,7 +31521,7 @@
         <f>IF(ISBLANK(E76),"",VLOOKUP(E76,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G76" s="99" t="str">
+      <c r="G76" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31542,7 +31539,7 @@
         <f>IF(ISBLANK(E77),"",VLOOKUP(E77,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G77" s="99" t="str">
+      <c r="G77" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31560,7 +31557,7 @@
         <f>IF(ISBLANK(E78),"",VLOOKUP(E78,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G78" s="99" t="str">
+      <c r="G78" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31614,7 +31611,7 @@
         <f>IF(ISBLANK(E81),"",VLOOKUP(E81,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G81" s="99" t="str">
+      <c r="G81" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31632,7 +31629,7 @@
         <f>IF(ISBLANK(E82),"",VLOOKUP(E82,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G82" s="99" t="str">
+      <c r="G82" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31650,7 +31647,7 @@
         <f>IF(ISBLANK(E83),"",VLOOKUP(E83,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G83" s="99" t="str">
+      <c r="G83" s="98" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -31668,7 +31665,7 @@
         <f>IF(ISBLANK(E84),"",VLOOKUP(E84,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G84" s="99" t="str">
+      <c r="G84" s="98" t="str">
         <f>IF(B84&lt;&gt;"",IF(D84&lt;C84,1-C84+D84,D84-C84)*24,"")</f>
         <v/>
       </c>
@@ -31686,7 +31683,7 @@
         <f>IF(ISBLANK(E85),"",VLOOKUP(E85,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G85" s="99" t="str">
+      <c r="G85" s="98" t="str">
         <f>IF(B85&lt;&gt;"",IF(D85&lt;C85,1-C85+D85,D85-C85)*24,"")</f>
         <v/>
       </c>
@@ -31704,7 +31701,7 @@
         <f>IF(ISBLANK(E86),"",VLOOKUP(E86,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G86" s="99"/>
+      <c r="G86" s="98"/>
     </row>
     <row r="87" spans="1:7" ht="15.75">
       <c r="A87" s="47" t="str">
@@ -31719,7 +31716,7 @@
         <f>IF(ISBLANK(E87),"",VLOOKUP(E87,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G87" s="99"/>
+      <c r="G87" s="98"/>
     </row>
     <row r="88" spans="1:7" ht="15.75">
       <c r="A88" s="47" t="str">
@@ -31734,7 +31731,7 @@
         <f>IF(ISBLANK(E88),"",VLOOKUP(E88,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G88" s="99"/>
+      <c r="G88" s="98"/>
     </row>
     <row r="89" spans="1:7" ht="15.75">
       <c r="A89" s="47" t="str">
@@ -31749,7 +31746,7 @@
         <f>IF(ISBLANK(E89),"",VLOOKUP(E89,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G89" s="99"/>
+      <c r="G89" s="98"/>
     </row>
     <row r="90" spans="1:7" ht="15.75">
       <c r="A90" s="47" t="str">
@@ -31764,7 +31761,7 @@
         <f>IF(ISBLANK(E90),"",VLOOKUP(E90,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G90" s="99"/>
+      <c r="G90" s="98"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
       <c r="A91" s="47" t="str">
@@ -31779,7 +31776,7 @@
         <f>IF(ISBLANK(E91),"",VLOOKUP(E91,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G91" s="99"/>
+      <c r="G91" s="98"/>
     </row>
     <row r="92" spans="1:7" ht="15.75">
       <c r="A92" s="47" t="str">
@@ -31794,7 +31791,7 @@
         <f>IF(ISBLANK(E92),"",VLOOKUP(E92,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G92" s="99"/>
+      <c r="G92" s="98"/>
     </row>
     <row r="93" spans="1:7" ht="15.75">
       <c r="A93" s="47" t="str">
@@ -31809,7 +31806,7 @@
         <f>IF(ISBLANK(E93),"",VLOOKUP(E93,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G93" s="99"/>
+      <c r="G93" s="98"/>
     </row>
     <row r="94" spans="1:7" ht="15.75">
       <c r="A94" s="47" t="str">
@@ -31824,7 +31821,7 @@
         <f>IF(ISBLANK(E94),"",VLOOKUP(E94,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G94" s="99"/>
+      <c r="G94" s="98"/>
     </row>
     <row r="95" spans="1:7" ht="15.75">
       <c r="A95" s="47" t="str">
@@ -31839,7 +31836,7 @@
         <f>IF(ISBLANK(E95),"",VLOOKUP(E95,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G95" s="99"/>
+      <c r="G95" s="98"/>
     </row>
     <row r="96" spans="1:7" ht="15.75">
       <c r="A96" s="47" t="str">
@@ -31854,7 +31851,7 @@
         <f>IF(ISBLANK(E96),"",VLOOKUP(E96,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G96" s="99"/>
+      <c r="G96" s="98"/>
     </row>
     <row r="97" spans="1:7" ht="15.75">
       <c r="A97" s="47" t="str">
@@ -31869,7 +31866,7 @@
         <f>IF(ISBLANK(E97),"",VLOOKUP(E97,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G97" s="99"/>
+      <c r="G97" s="98"/>
     </row>
     <row r="98" spans="1:7" ht="15.75">
       <c r="A98" s="47" t="str">
@@ -31884,7 +31881,7 @@
         <f>IF(ISBLANK(E98),"",VLOOKUP(E98,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G98" s="99"/>
+      <c r="G98" s="98"/>
     </row>
     <row r="99" spans="1:7" ht="15.75">
       <c r="A99" s="47" t="str">
@@ -31899,7 +31896,7 @@
         <f>IF(ISBLANK(E99),"",VLOOKUP(E99,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G99" s="99"/>
+      <c r="G99" s="98"/>
     </row>
     <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="47" t="str">
@@ -31914,7 +31911,7 @@
         <f>IF(ISBLANK(E100),"",VLOOKUP(E100,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G100" s="99"/>
+      <c r="G100" s="98"/>
     </row>
     <row r="101" spans="1:7" ht="15.75">
       <c r="A101" s="47" t="str">
@@ -31929,7 +31926,7 @@
         <f>IF(ISBLANK(E101),"",VLOOKUP(E101,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G101" s="99"/>
+      <c r="G101" s="98"/>
     </row>
     <row r="102" spans="1:7" ht="15.75">
       <c r="A102" s="47" t="str">
@@ -31944,7 +31941,7 @@
         <f>IF(ISBLANK(E102),"",VLOOKUP(E102,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G102" s="99"/>
+      <c r="G102" s="98"/>
     </row>
     <row r="103" spans="1:7" ht="15.75">
       <c r="A103" s="47" t="str">
@@ -31959,7 +31956,7 @@
         <f>IF(ISBLANK(E103),"",VLOOKUP(E103,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G103" s="99"/>
+      <c r="G103" s="98"/>
     </row>
     <row r="104" spans="1:7" ht="15.75">
       <c r="A104" s="47" t="str">
@@ -31974,7 +31971,7 @@
         <f>IF(ISBLANK(E104),"",VLOOKUP(E104,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G104" s="99"/>
+      <c r="G104" s="98"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="47" t="str">
@@ -31989,7 +31986,7 @@
         <f>IF(ISBLANK(E105),"",VLOOKUP(E105,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G105" s="99"/>
+      <c r="G105" s="98"/>
     </row>
     <row r="106" spans="1:7" ht="15.75">
       <c r="A106" s="47" t="str">
@@ -32004,7 +32001,7 @@
         <f>IF(ISBLANK(E106),"",VLOOKUP(E106,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G106" s="99"/>
+      <c r="G106" s="98"/>
     </row>
     <row r="107" spans="1:7" ht="15.75">
       <c r="A107" s="47" t="str">
@@ -32019,7 +32016,7 @@
         <f>IF(ISBLANK(E107),"",VLOOKUP(E107,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G107" s="99"/>
+      <c r="G107" s="98"/>
     </row>
     <row r="108" spans="1:7" ht="15.75">
       <c r="A108" s="47" t="str">
@@ -32034,7 +32031,7 @@
         <f>IF(ISBLANK(E108),"",VLOOKUP(E108,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G108" s="99"/>
+      <c r="G108" s="98"/>
     </row>
     <row r="109" spans="1:7" ht="15.75">
       <c r="A109" s="47" t="str">
@@ -32049,7 +32046,7 @@
         <f>IF(ISBLANK(E109),"",VLOOKUP(E109,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G109" s="99"/>
+      <c r="G109" s="98"/>
     </row>
     <row r="110" spans="1:7" ht="15.75">
       <c r="A110" s="47" t="str">
@@ -32064,7 +32061,7 @@
         <f>IF(ISBLANK(E110),"",VLOOKUP(E110,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G110" s="99"/>
+      <c r="G110" s="98"/>
     </row>
     <row r="111" spans="1:7" ht="15.75">
       <c r="A111" s="47" t="str">
@@ -32079,7 +32076,7 @@
         <f>IF(ISBLANK(E111),"",VLOOKUP(E111,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G111" s="99"/>
+      <c r="G111" s="98"/>
     </row>
     <row r="112" spans="1:7" ht="15.75">
       <c r="A112" s="47" t="str">
@@ -32094,7 +32091,7 @@
         <f>IF(ISBLANK(E112),"",VLOOKUP(E112,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G112" s="99"/>
+      <c r="G112" s="98"/>
     </row>
     <row r="113" spans="1:7" ht="15.75">
       <c r="A113" s="47" t="str">
@@ -32109,7 +32106,7 @@
         <f>IF(ISBLANK(E113),"",VLOOKUP(E113,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G113" s="99"/>
+      <c r="G113" s="98"/>
     </row>
     <row r="114" spans="1:7" ht="15.75">
       <c r="A114" s="47" t="str">
@@ -32124,7 +32121,7 @@
         <f>IF(ISBLANK(E114),"",VLOOKUP(E114,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G114" s="99"/>
+      <c r="G114" s="98"/>
     </row>
     <row r="115" spans="1:7" ht="15.75">
       <c r="A115" s="47" t="str">
@@ -32139,7 +32136,7 @@
         <f>IF(ISBLANK(E115),"",VLOOKUP(E115,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G115" s="99"/>
+      <c r="G115" s="98"/>
     </row>
     <row r="116" spans="1:7" ht="15.75">
       <c r="A116" s="47" t="str">
@@ -32154,7 +32151,7 @@
         <f>IF(ISBLANK(E116),"",VLOOKUP(E116,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G116" s="99"/>
+      <c r="G116" s="98"/>
     </row>
     <row r="117" spans="1:7" ht="15.75">
       <c r="A117" s="47" t="str">
@@ -32171,7 +32168,7 @@
         <f>IF(ISBLANK(E117),"",VLOOKUP(E117,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G117" s="99"/>
+      <c r="G117" s="98"/>
     </row>
     <row r="118" spans="1:7" ht="15.75">
       <c r="A118" s="47" t="str">
@@ -32186,7 +32183,7 @@
         <f>IF(ISBLANK(E118),"",VLOOKUP(E118,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G118" s="99"/>
+      <c r="G118" s="98"/>
     </row>
     <row r="119" spans="1:7" ht="15.75">
       <c r="A119" s="47" t="str">
@@ -32201,7 +32198,7 @@
         <f>IF(ISBLANK(E119),"",VLOOKUP(E119,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G119" s="99"/>
+      <c r="G119" s="98"/>
     </row>
     <row r="120" spans="1:7" ht="15.75">
       <c r="A120" s="47" t="str">
@@ -32216,7 +32213,7 @@
         <f>IF(ISBLANK(E120),"",VLOOKUP(E120,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G120" s="99"/>
+      <c r="G120" s="98"/>
     </row>
     <row r="121" spans="1:7" ht="15.75">
       <c r="A121" s="47" t="str">
@@ -32231,7 +32228,7 @@
         <f>IF(ISBLANK(E121),"",VLOOKUP(E121,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G121" s="99"/>
+      <c r="G121" s="98"/>
     </row>
     <row r="122" spans="1:7" ht="15.75">
       <c r="A122" s="47" t="str">
@@ -32246,7 +32243,7 @@
         <f>IF(ISBLANK(E122),"",VLOOKUP(E122,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G122" s="99"/>
+      <c r="G122" s="98"/>
     </row>
     <row r="123" spans="1:7" ht="15.75">
       <c r="A123" s="47" t="str">
@@ -32261,7 +32258,7 @@
         <f>IF(ISBLANK(E123),"",VLOOKUP(E123,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G123" s="99"/>
+      <c r="G123" s="98"/>
     </row>
     <row r="124" spans="1:7" ht="15.75">
       <c r="A124" s="47" t="str">
@@ -44835,11 +44832,11 @@
   </sheetPr>
   <dimension ref="A1:G922"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="65" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="66" customWidth="1"/>
@@ -44864,9 +44861,9 @@
       <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="26.25">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="5" t="e">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
-        <v>Zeitkonto von Anna Gartner</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -44896,7 +44893,7 @@
       </c>
       <c r="G4" s="46">
         <f>SUM(G7:G1002)</f>
-        <v>21</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="20" customFormat="1" ht="15.75">
@@ -45024,7 +45021,7 @@
       <c r="E10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="119" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="23">
@@ -45049,7 +45046,7 @@
       <c r="E11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="119" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="23">
@@ -45074,7 +45071,7 @@
       <c r="E12" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="119" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="23">
@@ -45099,7 +45096,7 @@
       <c r="E13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="119" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="23">
@@ -45124,7 +45121,7 @@
       <c r="E14" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="119" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="23">
@@ -45160,223 +45157,279 @@
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>Di</v>
+        <v>Sa</v>
       </c>
       <c r="B16" s="63">
-        <v>44327</v>
+        <v>44317</v>
       </c>
       <c r="C16" s="64">
-        <v>0.58333333333333337</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D16" s="64">
-        <v>0.64583333333333337</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="62" t="str">
-        <f>IF(ISBLANK(E16),"",VLOOKUP(E16,Aufgaben!A:B,2,FALSE))</f>
-        <v>Präsentationen</v>
+        <v>19</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>20</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>7.5000000000000027</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>Di</v>
+        <v>Sa</v>
       </c>
       <c r="B17" s="63">
-        <v>44362</v>
+        <v>44324</v>
       </c>
       <c r="C17" s="64">
-        <v>0.57291666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D17" s="64">
-        <v>0.64583333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="62" t="str">
-        <f>IF(ISBLANK(E17),"",VLOOKUP(E17,Aufgaben!A:B,2,FALSE))</f>
-        <v>Präsentationen</v>
+        <v>39</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="1"/>
-        <v>1.7500000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="47" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&lt;&gt;"",TEXT(B18,"TTT"),"")</f>
         <v>Di</v>
       </c>
       <c r="B18" s="63">
-        <v>44376</v>
+        <v>44327</v>
       </c>
       <c r="C18" s="64">
-        <v>0.57291666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D18" s="64">
-        <v>0.65625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F18" s="62" t="str">
         <f>IF(ISBLANK(E18),"",VLOOKUP(E18,Aufgaben!A:B,2,FALSE))</f>
         <v>Präsentationen</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" ref="G18:G81" si="2">IF(B18&lt;&gt;"",IF(D18&lt;C18,1-C18+D18,D18-C18)*24,"")</f>
-        <v>2.0000000000000009</v>
+        <f>IF(B18&lt;&gt;"",IF(D18&lt;C18,1-C18+D18,D18-C18)*24,"")</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62" t="str">
-        <f>IF(ISBLANK(E19),"",VLOOKUP(E19,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G19" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>Sa</v>
+      </c>
+      <c r="B19" s="63">
+        <v>44331</v>
+      </c>
+      <c r="C19" s="64">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D19" s="64">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" ref="G19:G81" si="2">IF(B19&lt;&gt;"",IF(D19&lt;C19,1-C19+D19,D19-C19)*24,"")</f>
+        <v>5.9999999999999982</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="62" t="str">
-        <f>IF(ISBLANK(E20),"",VLOOKUP(E20,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G20" s="23" t="str">
+        <v>Di</v>
+      </c>
+      <c r="B20" s="63">
+        <v>44334</v>
+      </c>
+      <c r="C20" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="64">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="23">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62" t="str">
-        <f>IF(ISBLANK(E21),"",VLOOKUP(E21,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G21" s="23" t="str">
+        <v>Do</v>
+      </c>
+      <c r="B21" s="63">
+        <v>44336</v>
+      </c>
+      <c r="C21" s="64">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D21" s="64">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="23">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4.9999999999999982</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="61"/>
+        <f>IF(B22&lt;&gt;"",TEXT(B22,"TTT"),"")</f>
+        <v>Di</v>
+      </c>
+      <c r="B22" s="63">
+        <v>44362</v>
+      </c>
+      <c r="C22" s="64">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D22" s="64">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="F22" s="62" t="str">
         <f>IF(ISBLANK(E22),"",VLOOKUP(E22,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G22" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>Präsentationen</v>
+      </c>
+      <c r="G22" s="23">
+        <f>IF(B22&lt;&gt;"",IF(D22&lt;C22,1-C22+D22,D22-C22)*24,"")</f>
+        <v>1.7500000000000018</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62" t="str">
-        <f>IF(ISBLANK(E23),"",VLOOKUP(E23,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G23" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>Sa</v>
+      </c>
+      <c r="B23" s="63">
+        <v>44366</v>
+      </c>
+      <c r="C23" s="64">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D23" s="64">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="23">
+        <f>IF(B23&lt;&gt;"",IF(D23&lt;C23,1-C23+D23,D23-C23)*24,"")</f>
+        <v>4.9999999999999982</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62" t="str">
-        <f>IF(ISBLANK(E24),"",VLOOKUP(E24,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G24" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>So</v>
+      </c>
+      <c r="B24" s="63">
+        <v>44367</v>
+      </c>
+      <c r="C24" s="64">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D24" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="23">
+        <f>IF(B24&lt;&gt;"",IF(D24&lt;C24,1-C24+D24,D24-C24)*24,"")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="47" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62" t="str">
-        <f>IF(ISBLANK(E25),"",VLOOKUP(E25,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G25" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>Di</v>
+      </c>
+      <c r="B25" s="63">
+        <v>44376</v>
+      </c>
+      <c r="C25" s="64">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="64">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="23">
+        <f>IF(B25&lt;&gt;"",IF(D25&lt;C25,1-C25+D25,D25-C25)*24,"")</f>
+        <v>1.9999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="61"/>
+        <f>IF(B26&lt;&gt;"",TEXT(B26,"TTT"),"")</f>
+        <v>Di</v>
+      </c>
+      <c r="B26" s="63">
+        <v>44376</v>
+      </c>
+      <c r="C26" s="64">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D26" s="64">
+        <v>0.65625</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>81</v>
+      </c>
       <c r="F26" s="62" t="str">
         <f>IF(ISBLANK(E26),"",VLOOKUP(E26,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G26" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>Präsentationen</v>
+      </c>
+      <c r="G26" s="23">
+        <f>IF(B26&lt;&gt;"",IF(D26&lt;C26,1-C26+D26,D26-C26)*24,"")</f>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75">
